--- a/data/dividends_info_20260214.xlsx
+++ b/data/dividends_info_20260214.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,11 +543,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Anima Holding S.p.A.</t>
+          <t>Banca Generali S.p.A.</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -556,45 +556,45 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-04-20</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ordinario</t>
+          <t>Interim</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>IT0004998065</t>
+          <t>IT0001031084</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6.824999809265137</v>
+        <v>53.59999847412109</v>
       </c>
       <c r="I3" t="n">
-        <v>7.326007530743596</v>
+        <v>4.10447772878612</v>
       </c>
       <c r="J3" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="K3" t="n">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.54</v>
+        <v>0.79</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -603,12 +603,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-04-20</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -618,30 +618,30 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>IT0005218380</t>
+          <t>IT0000072170</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>11.75</v>
+        <v>19.35499954223633</v>
       </c>
       <c r="I4" t="n">
-        <v>4.595744680851064</v>
+        <v>4.081632749595618</v>
       </c>
       <c r="J4" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="K4" t="n">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Generalfinance S.p.A.</t>
+          <t>Intesa Sanpaolo S.p.A.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.36</v>
+        <v>0.19</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -650,12 +650,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-04-20</t>
+          <t>2026-05-18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-05-20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -665,30 +665,30 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>IT0005144784</t>
+          <t>IT0000072618</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>25.70000076293945</v>
+        <v>5.697000026702881</v>
       </c>
       <c r="I5" t="n">
-        <v>5.291828636679189</v>
+        <v>3.335088627513345</v>
       </c>
       <c r="J5" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="K5" t="n">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.63</v>
+        <v>0.5105</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -697,12 +697,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-04-20</t>
+          <t>2026-05-04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-05-06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -712,77 +712,77 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>IT0000062957</t>
+          <t>IT0001041000</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>17.69000053405762</v>
+        <v>8.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.561333979538862</v>
+        <v>6.005882352941176</v>
       </c>
       <c r="J6" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>STMicroelectronics N.V.</t>
+          <t>First Capital S.p.A.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09</v>
+        <v>0.75</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DOLLARI USA</t>
+          <t>EURO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-03-23</t>
+          <t>2026-05-04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2026-03-25</t>
+          <t>2026-05-06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Interim</t>
+          <t>Straordinario</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>NL0000226223</t>
+          <t>IT0005252736</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>28.44499969482422</v>
+        <v>19.39999961853027</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3164000737056649</v>
+        <v>3.865979457461552</v>
       </c>
       <c r="J7" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K7" t="n">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Giocamondo Study S.p.A.</t>
+          <t>Anima Holding S.p.A.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -791,12 +791,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-04-20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-04-22</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -806,30 +806,30 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>IT0005652489</t>
+          <t>IT0004998065</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.720000028610229</v>
+        <v>6.824999809265137</v>
       </c>
       <c r="I8" t="n">
-        <v>3.488372034998183</v>
+        <v>7.326007530743596</v>
       </c>
       <c r="J8" t="n">
-        <v>-5</v>
+        <v>65</v>
       </c>
       <c r="K8" t="n">
-        <v>-3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>H-FARM S.p.A.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06</v>
+        <v>0.54</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -838,45 +838,45 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-04-20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-04-22</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Straordinario</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>IT0004674666</t>
+          <t>IT0005218380</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.1840000003576279</v>
+        <v>11.75</v>
       </c>
       <c r="I9" t="n">
-        <v>32.60869558879468</v>
+        <v>4.595744680851064</v>
       </c>
       <c r="J9" t="n">
-        <v>-12</v>
+        <v>65</v>
       </c>
       <c r="K9" t="n">
-        <v>-10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.23</v>
+        <v>1.36</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -885,81 +885,316 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-04-20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-04-22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Interim</t>
+          <t>Ordinario</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>IT0003128367</t>
+          <t>IT0005144784</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9.305999755859375</v>
+        <v>25.70000076293945</v>
       </c>
       <c r="I10" t="n">
-        <v>2.471523812959313</v>
+        <v>5.291828636679189</v>
       </c>
       <c r="J10" t="n">
-        <v>-26</v>
+        <v>65</v>
       </c>
       <c r="K10" t="n">
-        <v>-24</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>EURO</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2026-04-20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2026-04-22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ordinario</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>IT0000062957</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>17.69000053405762</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.561333979538862</v>
+      </c>
+      <c r="J11" t="n">
+        <v>65</v>
+      </c>
+      <c r="K11" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>STMicroelectronics N.V.</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DOLLARI USA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2026-03-23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2026-03-25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Interim</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NL0000226223</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>28.44499969482422</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.3164000737056649</v>
+      </c>
+      <c r="J12" t="n">
+        <v>37</v>
+      </c>
+      <c r="K12" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Giocamondo Study S.p.A.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>EURO</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ordinario</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>IT0005652489</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1.720000028610229</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.488372034998183</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>H-FARM S.p.A.</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>EURO</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Straordinario</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>IT0004674666</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1840000003576279</v>
+      </c>
+      <c r="I14" t="n">
+        <v>32.60869558879468</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-12</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ENEL S.p.A.</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>EURO</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Interim</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>IT0003128367</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9.305999755859375</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.471523812959313</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-26</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Snam S.p.A.</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B16" t="n">
         <v>0.1208</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>EURO</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>2026-01-19</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Interim</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>IT0003153415</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H16" t="n">
         <v>6.276000022888184</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I16" t="n">
         <v>1.924792854675747</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J16" t="n">
         <v>-26</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K16" t="n">
         <v>-24</v>
       </c>
     </row>
@@ -974,7 +1209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1665,7 +1900,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pozzi Milano S.p.A.</t>
+          <t>Prysmian S.p.A.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1675,7 +1910,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1934,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>Pozzi Milano S.p.A.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1709,7 +1944,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1985,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>JUVENTUS F.C. S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1760,14 +1995,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>IGD SIIQ S.p.A.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1777,14 +2012,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IGD SIIQ S.p.A.</t>
+          <t>Intesa Sanpaolo S.p.A.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1801,7 +2036,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>I.CO.P. S.p.A. Società Benefit</t>
+          <t>JUVENTUS F.C. S.p.A.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1811,14 +2046,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo S.p.A.</t>
+          <t>I.CO.P. S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1886,7 +2121,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Autostrade Meridionali S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1896,14 +2131,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>SOGEFI S.p.A.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1913,14 +2148,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Renovalo S.p.A.</t>
+          <t>Reti S.p.A.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1930,14 +2165,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Reti S.p.A.</t>
+          <t>Renovalo S.p.A.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1947,14 +2182,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOGEFI S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1964,14 +2199,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>Autostrade Meridionali S.p.A.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1981,7 +2216,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2240,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Anima Holding S.p.A.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2022,7 +2257,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Anima Holding S.p.A.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2039,7 +2274,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2049,14 +2284,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2066,14 +2301,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2090,7 +2325,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Kruso Kapital S.p.A.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2107,7 +2342,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2117,14 +2352,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Kruso Kapital S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2141,7 +2376,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2151,14 +2386,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2168,7 +2403,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2461,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2243,7 +2478,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2253,7 +2488,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2512,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2294,7 +2529,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2304,7 +2539,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2556,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2631,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2406,14 +2641,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2423,14 +2658,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2464,7 +2699,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2474,14 +2709,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2491,7 +2726,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -2634,7 +2869,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>VALSOIA S.p.A.</t>
+          <t>CALTAGIRONE EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2651,7 +2886,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sanlorenzo S.p.A.</t>
+          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2668,7 +2903,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CALTAGIRONE EDITORE S.p.A.</t>
+          <t>DIGITAL BROS S.p.A.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2678,14 +2913,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2702,7 +2937,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>DIGITAL BROS S.p.A.</t>
+          <t>VALSOIA S.p.A.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2712,14 +2947,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
+          <t>Toscana Aeroporti S.p.A.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2736,7 +2971,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Banca Popolare di Sondrio S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2753,7 +2988,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CAREL INDUSTRIES S.p.A.</t>
+          <t>RT&amp;L S.P.A.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2770,7 +3005,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RT&amp;L S.P.A.</t>
+          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2787,7 +3022,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>Banca Popolare di Sondrio S.p.A.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2804,7 +3039,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Toscana Aeroporti S.p.A.</t>
+          <t>CAREL INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2821,7 +3056,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2838,7 +3073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2848,14 +3083,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2872,7 +3107,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>WEBUILD S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2882,14 +3117,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2906,7 +3141,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2923,7 +3158,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2933,14 +3168,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>SYS-DAT S.p.A.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2950,14 +3185,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2974,7 +3209,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2991,7 +3226,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>WEBUILD S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3001,14 +3236,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SYS-DAT S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3025,7 +3260,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3035,14 +3270,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3059,7 +3294,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3069,14 +3304,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3086,14 +3321,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3110,7 +3345,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Bper Banca S.P.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3127,7 +3362,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3144,7 +3379,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3161,7 +3396,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>Bper Banca S.P.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3178,7 +3413,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3188,14 +3423,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Orsero S.p.A.</t>
+          <t>Enervit S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3212,7 +3447,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>REPLY S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3222,14 +3457,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SAFILO GROUP S.p.A.</t>
+          <t>EQUITA GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3246,7 +3481,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Sesa S.p.A.</t>
+          <t>E.P.H. S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3256,14 +3491,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3280,7 +3515,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3297,7 +3532,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3314,7 +3549,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>CULTI Milano S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3331,7 +3566,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3348,7 +3583,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3358,14 +3593,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>EQUITA GROUP S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3382,7 +3617,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CULTI Milano S.p.A.</t>
+          <t>Alerion Clean Power S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3399,7 +3634,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ACEA S.p.A.</t>
+          <t>Aquafil S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3416,7 +3651,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3426,14 +3661,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3443,14 +3678,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ZIGNAGO VETRO S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3460,14 +3695,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>E.P.H. S.p.A.</t>
+          <t>BANCA MEDIOLANUM S.p.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3484,7 +3719,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>CALTAGIRONE S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3501,7 +3736,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>Avio S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3511,14 +3746,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
+          <t>REPLY S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3535,7 +3770,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3545,14 +3780,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3562,14 +3797,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3586,7 +3821,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Alerion Clean Power S.p.A.</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3603,7 +3838,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>Orsero S.p.A.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3620,7 +3855,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Aquafil S.p.A.</t>
+          <t>SAFILO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3637,7 +3872,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Avio S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3647,14 +3882,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3671,7 +3906,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>Sesa S.p.A.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3681,14 +3916,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BANCA MEDIOLANUM S.p.A.</t>
+          <t>ZIGNAGO VETRO S.p.A.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3705,7 +3940,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3715,14 +3950,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Enervit S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3739,7 +3974,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CALTAGIRONE S.p.A.</t>
+          <t>ACEA S.p.A.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3756,7 +3991,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3766,14 +4001,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>IRCE s.p.a</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3790,7 +4025,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>EMAK S.p.A.</t>
+          <t>IRCE s.p.a</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3807,7 +4042,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>EL.EN. S.p.A.</t>
+          <t>EMAK S.p.A.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3824,7 +4059,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Neodecortech S.p.A.</t>
+          <t>EL.EN. S.p.A.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3851,14 +4086,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>BIESSE S.p.A.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3875,7 +4110,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3885,19 +4120,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BIESSE S.p.A.</t>
+          <t>TECMA SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3909,29 +4144,29 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>REVO Insurance S.p.A.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3943,12 +4178,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>NEWPRINCES</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3960,41 +4195,41 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>Comer Industries S.p.A.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4011,7 +4246,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>REVO Insurance S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4021,14 +4256,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4045,7 +4280,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>TECMA SOLUTIONS S.p.A.</t>
+          <t>EUROTECH S.p.A.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4062,7 +4297,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Triboo S.p.A.</t>
+          <t>GAROFALO HEALTH CARE S.p.A.</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4079,7 +4314,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Acinque S.p.A.</t>
+          <t>Gabetti Property Solutions S.p.A.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4096,7 +4331,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>MOLTIPLY GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4106,14 +4341,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>Triboo S.p.A.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4124,176 +4359,6 @@
       <c r="C185" t="inlineStr">
         <is>
           <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Gabetti Property Solutions S.p.A.</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>MOLTIPLY GROUP S.p.A.</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>GAROFALO HEALTH CARE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>EUROTECH S.p.A.</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Dexelance S.p.A.</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Comer Industries S.p.A.</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>CELLULARLINE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>NEWPRINCES</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Dexelance S.p.A.</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -4326,338 +4391,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Acinque S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CELLULARLINE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CELLULARLINE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Comer Industries S.p.A.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Dexelance S.p.A.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Dexelance S.p.A.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>EUROTECH S.p.A.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>GAROFALO HEALTH CARE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Gabetti Property Solutions S.p.A.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MOLTIPLY GROUP S.p.A.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NEWPRINCES</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>REVO Insurance S.p.A.</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>TECMA SOLUTIONS S.p.A.</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Triboo S.p.A.</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>